--- a/Staff_List.xlsx
+++ b/Staff_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\SC2002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\oop-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041EAD8-F36E-4752-A97C-8BE0064A1E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396079F2-F5EE-4599-B0F8-A66DCB0D626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="870" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="600" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Staff ID</t>
   </si>
@@ -70,104 +70,16 @@
     <t>Sarah Lee</t>
   </si>
   <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>D004</t>
-  </si>
-  <si>
-    <t>lol</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>D005</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>D006</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>D007</t>
-  </si>
-  <si>
-    <t>D01!</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>123asd</t>
-  </si>
-  <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>D010</t>
-  </si>
-  <si>
-    <t>A010</t>
-  </si>
-  <si>
-    <t>P009</t>
-  </si>
-  <si>
-    <t>pharmacist</t>
-  </si>
-  <si>
-    <t>P1010</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>qweqwd</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>A0056</t>
-  </si>
-  <si>
-    <t>asdqwe</t>
-  </si>
-  <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>mama</t>
-  </si>
-  <si>
-    <t>P100</t>
-  </si>
-  <si>
-    <t>hi</t>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Emily Clarke</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,16 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="24.7109375"/>
-    <col min="3" max="3" customWidth="true" width="30.42578125"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -559,292 +471,71 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0">
-        <v>34</v>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0">
-        <v>6</v>
+      <c r="E3">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E9" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E10" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E11" s="0">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E12" s="0">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E13" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E14" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>235.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E16" t="n" s="0">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E17" t="n" s="0">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E18" t="n" s="0">
-        <v>233.0</v>
       </c>
     </row>
   </sheetData>
